--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr1_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr1_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.77734375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29324455537364286</v>
+        <v>0.28555665058776664</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29323949482084527</v>
+        <v>0.28531915835672417</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-2.4114632199567747e-06</v>
+        <v>0.0001019183679571054</v>
       </c>
       <c r="E3" s="0">
-        <v>-2.35987352192477e-07</v>
+        <v>-7.7929164262607418e-06</v>
       </c>
       <c r="F3" s="0">
-        <v>-9.1238333630274614e-07</v>
+        <v>-1.5486929500364549e-05</v>
       </c>
       <c r="G3" s="0">
-        <v>-1.0075305392954514e-07</v>
+        <v>6.8240721399667932e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>-3.7378903703169818e-09</v>
+        <v>1.0377160130118047e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>7.5112793865180915e-08</v>
+        <v>-6.7680337135265345e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>1.0240124475591195e-06</v>
+        <v>-1.9615581305476582e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.2940017531776406</v>
+        <v>0.31636821606524029</v>
       </c>
       <c r="C4" s="0">
-        <v>6.1584318891807815e-05</v>
+        <v>0.023596584757723204</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-2.2215370776888804e-06</v>
+        <v>-1.2132293470637667e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>1.9617775200590435e-06</v>
+        <v>-7.7791724958483203e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-2.6933682951068653e-06</v>
+        <v>6.8228968933293349e-07</v>
       </c>
       <c r="I4" s="0">
-        <v>2.6384844754251054e-06</v>
+        <v>-0.00096781829951372595</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00042718091954710446</v>
+        <v>0.0035671602344766965</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00016262782021225775</v>
+        <v>-0.00035379241422389685</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29367082109108428</v>
+        <v>0.31321093685936774</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-4.6780301794254954e-05</v>
+        <v>-0.00013600947716177513</v>
       </c>
       <c r="E5" s="0">
-        <v>1.6957363683684727e-05</v>
+        <v>-0.0001423112862999622</v>
       </c>
       <c r="F5" s="0">
-        <v>9.6631134386617154e-05</v>
+        <v>6.240633009454836e-05</v>
       </c>
       <c r="G5" s="0">
-        <v>1.067091980420885e-06</v>
+        <v>-0.00030304219101689577</v>
       </c>
       <c r="H5" s="0">
-        <v>2.5330771316797347e-06</v>
+        <v>1.3839252025109235e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-3.1823402407595169e-06</v>
+        <v>-0.0002563185938714994</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00044929947986660501</v>
+        <v>-0.0025158339060088464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29410872220883338</v>
+        <v>0.29477053291389849</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.00016093360688367649</v>
+        <v>-0.024150397181063789</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1.8250731245913058e-07</v>
+        <v>-3.0087002213150653e-06</v>
       </c>
       <c r="F6" s="0">
-        <v>-3.8531593154374149e-07</v>
+        <v>-9.9866587554802306e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-4.3547296255245201e-07</v>
+        <v>-0.00010054115293010849</v>
       </c>
       <c r="I6" s="0">
-        <v>-2.925068736865794e-05</v>
+        <v>0.005228997667795254</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00071181525743346796</v>
+        <v>3.7174727887834269e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29430661264629926</v>
+        <v>0.30411397388776962</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.00018834709280756749</v>
+        <v>0.003756899555119543</v>
       </c>
       <c r="E7" s="0">
-        <v>-8.8440679476763317e-06</v>
+        <v>-0.00011020458623372834</v>
       </c>
       <c r="F7" s="0">
-        <v>4.2283793873880587e-06</v>
+        <v>-0.00078424233794692597</v>
       </c>
       <c r="G7" s="0">
-        <v>1.0724931472730003e-06</v>
+        <v>0.0034120524873610756</v>
       </c>
       <c r="H7" s="0">
-        <v>4.1353704074239446e-07</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-6.825566898316933e-06</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00041976557660639013</v>
+        <v>0.00012698300180297162</v>
       </c>
     </row>
     <row r="8">
